--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_03_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_03_end.xlsx
@@ -1584,7 +1584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="머드락"]  제 딴에 감염자를 대우해준다는 라이타니엔에도, 살카즈가 있을 곳은 없다.
+    <t xml:space="preserve">[name="머드락"]  제 딴에 감염자를 대우해준다는 라이타니아에도, 살카즈가 있을 곳은 없다.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_03_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_03_end.xlsx
@@ -940,7 +940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  You still think you’re so bright, hiding the truth to “maintain order?”
+    <t xml:space="preserve">[name="Armed Infected"]  You still think you’re so bright, hiding the truth to 'maintain order?'
 </t>
   </si>
   <si>
@@ -960,7 +960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  But, I’m sorry to say, we may be about to have an “accident” here.
+    <t xml:space="preserve">[name="Severin"]  But, I’m sorry to say, we may be about to have an 'accident' here.
 </t>
   </si>
   <si>
@@ -968,7 +968,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  No, just a “slip” of the hand—
+    <t xml:space="preserve">[name="Severin"]  No, just a 'slip' of the hand—
 </t>
   </si>
   <si>
@@ -1012,7 +1012,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I’ll have words for you soon, “Schultz.”
+    <t xml:space="preserve">[name="Folinic"]  I’ll have words for you soon, 'Schultz.'
 </t>
   </si>
   <si>
@@ -1024,7 +1024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I told you before, I’m not “Sir.” I’m not your Schultz when we’re alone. I’m Thor’s father, and your uncle.
+    <t xml:space="preserve">[name="Severin"]  I told you before, I’m not 'Sir.' I’m not your Schultz when we’re alone. I’m Thor’s father, and your uncle.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_03_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_03_end.xlsx
@@ -820,7 +820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  I can see the Rathaus spire from here! Thank goodness, it looks like everyone’s safe!
+    <t xml:space="preserve">[name="Tatjana"]  I can see the Rathaus spire from here! Thank goodness, it looks like everyone's safe!
 </t>
   </si>
   <si>
@@ -836,23 +836,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  My sons haven’t come back. Has anyone seen them?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Where are the Gendarmerie?! Where is Severin?! Isn’t he supposed to be a hero? And he’s missing at a time like this?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Everyone’s panicking!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  But it looks like they haven’t attacked the residential areas. Someone must be leading them!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  Everyone’s been on edge for far too long. That explosion was all they needed to snap—
+    <t xml:space="preserve">[name="Townsfolk"]  My sons haven't come back. Has anyone seen them?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  Where are the Gendarmerie?! Where is Severin?! Isn't he supposed to be a hero? And he's missing at a time like this?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Everyone's panicking!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  But it looks like they haven't attacked the residential areas. Someone must be leading them!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  Everyone's been on edge for far too long. That explosion was all they needed to snap—
 </t>
   </si>
   <si>
@@ -860,7 +860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Look! There’s a lot of them! Hurry!
+    <t xml:space="preserve">[name="Tatjana"]  Look! There's a lot of them! Hurry!
 </t>
   </si>
   <si>
@@ -876,11 +876,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Get out of here. Out of respect for you as my fellow townsfolk, I won’t—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Hah! Look at the mouth on this one! You think we don’t know you’re the last cop in Wolumonde?
+    <t xml:space="preserve">[name="Severin"]  Get out of here. Out of respect for you as my fellow townsfolk, I won't—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  Hah! Look at the mouth on this one! You think we don't know you're the last cop in Wolumonde?
 </t>
   </si>
   <si>
@@ -896,7 +896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Settle down. Truce. I’m going to smoke a cigarette while you tell me what exactly you want from this town. Go ahead.
+    <t xml:space="preserve">[name="Severin"]  Settle down. Truce. I'm going to smoke a cigarette while you tell me what exactly you want from this town. Go ahead.
 </t>
   </si>
   <si>
@@ -908,7 +908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Look, I’m putting down my sword. I think we can come to terms here. No need to fight.
+    <t xml:space="preserve">[name="Severin"]  Look, I'm putting down my sword. I think we can come to terms here. No need to fight.
 </t>
   </si>
   <si>
@@ -928,19 +928,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  That’s it?! You walled us in and left us to die!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  All that’s left of my block is a heap of earthquake rubble. It’s all Originium clusters that could blow at any moment. You evacuated all the non-infected and we’re running out of supplies. Is anyone coming to help us?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Oh right, I almost forgot. Because you suck at your job, Wolumonde is heading straight to hell, and we’re just the first ones to be thrown under the bus.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  You still think you’re so bright, hiding the truth to 'maintain order?'
+    <t xml:space="preserve">[name="Armed Infected"]  That's it?! You walled us in and left us to die!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  All that's left of my block is a heap of earthquake rubble. It's all Originium clusters that could blow at any moment. You evacuated all the non-infected and we're running out of supplies. Is anyone coming to help us?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  Oh right, I almost forgot. Because you suck at your job, Wolumonde is heading straight to hell, and we're just the first ones to be thrown under the bus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  You still think you're so bright, hiding the truth to 'maintain order?'
 </t>
   </si>
   <si>
@@ -948,7 +948,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Looks like my matches got wet. I guess I don’t have a light. Let’s get back to it.
+    <t xml:space="preserve">[name="Severin"]  Looks like my matches got wet. I guess I don't have a light. Let's get back to it.
 </t>
   </si>
   <si>
@@ -960,7 +960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  But, I’m sorry to say, we may be about to have an 'accident' here.
+    <t xml:space="preserve">[name="Severin"]  But, I'm sorry to say, we may be about to have an 'accident' here.
 </t>
   </si>
   <si>
@@ -992,7 +992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I don’t think so.
+    <t xml:space="preserve">[name="Severin"]  I don't think so.
 </t>
   </si>
   <si>
@@ -1004,19 +1004,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  He’s breathing!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Let’s make sure we’re saving lives now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  I’ll have words for you soon, 'Schultz.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Sure. I’m all ears, Miss.
+    <t xml:space="preserve">[name="Suzuran"]  He's breathing!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Let's make sure we're saving lives now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  I'll have words for you soon, 'Schultz.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Sure. I'm all ears, Miss.
 </t>
   </si>
   <si>
@@ -1024,7 +1024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I told you before, I’m not 'Sir.' I’m not your Schultz when we’re alone. I’m Thor’s father, and your uncle.
+    <t xml:space="preserve">[name="Severin"]  I told you before, I'm not 'Sir.' I'm not your Schultz when we're alone. I'm Thor's father, and your uncle.
 </t>
   </si>
   <si>
@@ -1032,15 +1032,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I won’t deny it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  That’s only going to make things worse! And you can’t attack a member of the Wolumonde family so lightly!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Even if he told the militants that we’re defenseless? 
+    <t xml:space="preserve">[name="Severin"]  I won't deny it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  That's only going to make things worse! And you can't attack a member of the Wolumonde family so lightly!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Even if he told the militants that we're defenseless? 
 </t>
   </si>
   <si>
@@ -1052,7 +1052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Can’t always make the right choice, no matter how much you might want to. Not unless you’re omniscient.
+    <t xml:space="preserve">[name="Severin"]  Can't always make the right choice, no matter how much you might want to. Not unless you're omniscient.
 </t>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I’d do it. No matter who had to die.
+    <t xml:space="preserve">[name="Severin"]  I'd do it. No matter who had to die.
 </t>
   </si>
   <si>
@@ -1072,11 +1072,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  ...At least he managed to hold on to his life. That’s good enough.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Let’s get back to Rhodes Island. Did you tell them the truth? Did you already take them to the camp? That girl had a different look in her eye.
+    <t xml:space="preserve">[name="Severin"]  ...At least he managed to hold on to his life. That's good enough.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Let's get back to Rhodes Island. Did you tell them the truth? Did you already take them to the camp? That girl had a different look in her eye.
 </t>
   </si>
   <si>
@@ -1084,15 +1084,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I was pretty sure. For what it’s worth, I never saw the point in hiding it from them. But keeping it under wraps myself calmed a lot of people down.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  What’s your read on them?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  I think they’ll help Wolumonde. They’re the same kind of people as Dr. Atro.
+    <t xml:space="preserve">[name="Severin"]  I was pretty sure. For what it's worth, I never saw the point in hiding it from them. But keeping it under wraps myself calmed a lot of people down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  What's your read on them?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  I think they'll help Wolumonde. They're the same kind of people as Dr. Atro.
 </t>
   </si>
   <si>
@@ -1100,7 +1100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  They’re the ones they sent. So I guess they should be decently representative?
+    <t xml:space="preserve">[name="Tatjana"]  They're the ones they sent. So I guess they should be decently representative?
 </t>
   </si>
   <si>
@@ -1108,7 +1108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I’m thinking back... to a certain sniper. She was from Rhodes Island...
+    <t xml:space="preserve">[name="Severin"]  I'm thinking back... to a certain sniper. She was from Rhodes Island...
 </t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  I hope she didn’t get swallowed up by the Catastrophe...
+    <t xml:space="preserve">[name="Tatjana"]  I hope she didn't get swallowed up by the Catastrophe...
 </t>
   </si>
   <si>
@@ -1136,7 +1136,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Severin! They’re over at the workshops! They came through a tunnel on the next street over!
+    <t xml:space="preserve">[name="Townsfolk"]  Severin! They're over at the workshops! They came through a tunnel on the next street over!
 </t>
   </si>
   <si>
@@ -1160,7 +1160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  And they have the gall to try to pin it on the Infected? What’s next? Where do they go from here?
+    <t xml:space="preserve">[name="Armed Infected"]  And they have the gall to try to pin it on the Infected? What's next? Where do they go from here?
 </t>
   </si>
   <si>
@@ -1168,7 +1168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  You’re quite worked up. Try to relax. You don’t usually talk like that.
+    <t xml:space="preserve">[name="Mudrock"]  You're quite worked up. Try to relax. You don't usually talk like that.
 </t>
   </si>
   <si>
@@ -1184,7 +1184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  You’re right... Who knows the pain of losing one’s home better than the Sarkaz?
+    <t xml:space="preserve">[name="Mudrock"]  You're right... Who knows the pain of losing one's home better than the Sarkaz?
 </t>
   </si>
   <si>
@@ -1200,7 +1200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  So... We wait. The only thing we’re here to destroy is the murderer. We can’t lose control of our hate. Or else...
+    <t xml:space="preserve">[name="Mudrock"]  So... We wait. The only thing we're here to destroy is the murderer. We can't lose control of our hate. Or else...
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_03_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_03_end.xlsx
@@ -1584,7 +1584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="머드락"]  제 딴에 감염자를 대우해준다는 라이타니아에도, 살카즈가 있을 곳은 없다.
+    <t xml:space="preserve">[name="머드락"]  제 딴에 감염자를 대우해준다는 라이타니엔에도, 살카즈가 있을 곳은 없다.
 </t>
   </si>
   <si>
